--- a/Doc/docs.xlsx
+++ b/Doc/docs.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="01_Generic_stuff" sheetId="1" r:id="rId1"/>
     <sheet name="02_HW_Components" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Power source" sheetId="3" r:id="rId3"/>
+    <sheet name="ExtFlash" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="111">
   <si>
     <t>microcontroller:</t>
   </si>
@@ -178,13 +179,184 @@
   </si>
   <si>
     <t>0Ohm resistor strap to link Vbatt to Vcc (if direct connection to battery)</t>
+  </si>
+  <si>
+    <t>to buy</t>
+  </si>
+  <si>
+    <t>small smd shotky diodes  (100mA)</t>
+  </si>
+  <si>
+    <t>supercap</t>
+  </si>
+  <si>
+    <t>Calculations for XC9264B75DER-G:</t>
+  </si>
+  <si>
+    <t>V.in</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Cfb</t>
+  </si>
+  <si>
+    <t>nF</t>
+  </si>
+  <si>
+    <t>V.out</t>
+  </si>
+  <si>
+    <t>Rfb2</t>
+  </si>
+  <si>
+    <t>kOhm</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>uH</t>
+  </si>
+  <si>
+    <t>fzfb</t>
+  </si>
+  <si>
+    <t>Hz</t>
+  </si>
+  <si>
+    <t>Rfb1</t>
+  </si>
+  <si>
+    <t>Vfb</t>
+  </si>
+  <si>
+    <t>Vout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">write power req. </t>
+  </si>
+  <si>
+    <t>50mA</t>
+  </si>
+  <si>
+    <t>Von min</t>
+  </si>
+  <si>
+    <t>2.7V</t>
+  </si>
+  <si>
+    <t>Vcut</t>
+  </si>
+  <si>
+    <t>2.4V</t>
+  </si>
+  <si>
+    <t>read power req.</t>
+  </si>
+  <si>
+    <t>15mA</t>
+  </si>
+  <si>
+    <t>with 20MHz clock</t>
+  </si>
+  <si>
+    <t>stdby</t>
+  </si>
+  <si>
+    <t>30uA</t>
+  </si>
+  <si>
+    <t>T reset pulse</t>
+  </si>
+  <si>
+    <t>200ns</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>T reset procedure</t>
+  </si>
+  <si>
+    <t>100us</t>
+  </si>
+  <si>
+    <t>T page prog 256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">450us </t>
+  </si>
+  <si>
+    <t>1350us</t>
+  </si>
+  <si>
+    <t>max:</t>
+  </si>
+  <si>
+    <t>typ:</t>
+  </si>
+  <si>
+    <t>T byte prog 1st</t>
+  </si>
+  <si>
+    <t>75us</t>
+  </si>
+  <si>
+    <t>90us</t>
+  </si>
+  <si>
+    <t>T byte prog next</t>
+  </si>
+  <si>
+    <t>10us</t>
+  </si>
+  <si>
+    <t>30us</t>
+  </si>
+  <si>
+    <t>T err sector 4k</t>
+  </si>
+  <si>
+    <t>65ms</t>
+  </si>
+  <si>
+    <t>320ms</t>
+  </si>
+  <si>
+    <t>T err 1/2bk 32kB</t>
+  </si>
+  <si>
+    <t>300ms</t>
+  </si>
+  <si>
+    <t>600ms</t>
+  </si>
+  <si>
+    <t>T err bk 64kB</t>
+  </si>
+  <si>
+    <t>450ms</t>
+  </si>
+  <si>
+    <t>1150ms</t>
+  </si>
+  <si>
+    <t>T err all</t>
+  </si>
+  <si>
+    <t>55s</t>
+  </si>
+  <si>
+    <t>150s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +374,22 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -239,7 +427,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -253,6 +441,8 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,7 +746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -672,10 +862,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J6"/>
+  <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,6 +1026,19 @@
         <v>28</v>
       </c>
     </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -843,12 +1046,307 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="5">
+        <f>1/(2*PI() * C8 * C9* 1000) * 1000000000</f>
+        <v>0.31830988618379069</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6">
+        <v>3.3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="5">
+        <f>(0.75*C9)/(C6-0.75)</f>
+        <v>29.411764705882355</v>
+      </c>
+      <c r="G6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8">
+        <v>5000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13">
+        <v>0.75</v>
+      </c>
+      <c r="D13">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="E13">
+        <v>0.76100000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="6">
+        <f>C13*($C$14+$C$15)/$C$15</f>
+        <v>3.0227272727272729</v>
+      </c>
+      <c r="D16" s="6">
+        <f>D13*($C$14+$C$15)/$C$15</f>
+        <v>2.9783939393939391</v>
+      </c>
+      <c r="E16" s="6">
+        <f>E13*($C$14+$C$15)/$C$15</f>
+        <v>3.0670606060606063</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Doc/docs.xlsx
+++ b/Doc/docs.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="01_Generic_stuff" sheetId="1" r:id="rId1"/>
     <sheet name="02_HW_Components" sheetId="2" r:id="rId2"/>
-    <sheet name="Power source" sheetId="3" r:id="rId3"/>
-    <sheet name="ExtFlash" sheetId="4" r:id="rId4"/>
+    <sheet name="Work_hours" sheetId="5" r:id="rId3"/>
+    <sheet name="Power source" sheetId="3" r:id="rId4"/>
+    <sheet name="ExtFlash" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="157">
   <si>
     <t>microcontroller:</t>
   </si>
@@ -350,13 +351,151 @@
   </si>
   <si>
     <t>150s</t>
+  </si>
+  <si>
+    <t>No NRF / No Accelero</t>
+  </si>
+  <si>
+    <t>Vin</t>
+  </si>
+  <si>
+    <t>Vdio</t>
+  </si>
+  <si>
+    <t>mAIn</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>on divider</t>
+  </si>
+  <si>
+    <t>R=</t>
+  </si>
+  <si>
+    <t>V peak</t>
+  </si>
+  <si>
+    <t>on the 2R2 resistor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decay on </t>
+  </si>
+  <si>
+    <t>500us</t>
+  </si>
+  <si>
+    <t>-&gt;</t>
+  </si>
+  <si>
+    <t>mA</t>
+  </si>
+  <si>
+    <t>mA / diode</t>
+  </si>
+  <si>
+    <t>- per diode endurance</t>
+  </si>
+  <si>
+    <t>non repetitive</t>
+  </si>
+  <si>
+    <t>repetitive</t>
+  </si>
+  <si>
+    <t>4.5A / 8ms</t>
+  </si>
+  <si>
+    <t>2A / 4ms</t>
+  </si>
+  <si>
+    <t>Hw. design:</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>Documentation:</t>
+  </si>
+  <si>
+    <t>assembly</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>Software:</t>
+  </si>
+  <si>
+    <t>test rig and misc</t>
+  </si>
+  <si>
+    <t>schematics</t>
+  </si>
+  <si>
+    <t>layour + routing</t>
+  </si>
+  <si>
+    <t>checks, outputs, order</t>
+  </si>
+  <si>
+    <t>assembly template</t>
+  </si>
+  <si>
+    <t>stencil prep.</t>
+  </si>
+  <si>
+    <t>dbg. headers</t>
+  </si>
+  <si>
+    <t>component selection</t>
+  </si>
+  <si>
+    <t>1 piece - pastemask</t>
+  </si>
+  <si>
+    <t>1 piece - component assy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 piece - tests </t>
+  </si>
+  <si>
+    <t>environment setup</t>
+  </si>
+  <si>
+    <t>Project setup</t>
+  </si>
+  <si>
+    <t>Os</t>
+  </si>
+  <si>
+    <t>code + acrh.</t>
+  </si>
+  <si>
+    <t>HAL</t>
+  </si>
+  <si>
+    <t>basic IO / sys timers</t>
+  </si>
+  <si>
+    <t>NRF startup / Os porting</t>
+  </si>
+  <si>
+    <t>1 piece - flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2nd. debugger </t>
+  </si>
+  <si>
+    <t>dbg.dongle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,6 +533,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -427,7 +581,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -443,6 +597,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -865,7 +1031,7 @@
   <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1046,10 +1212,216 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G16"/>
+  <dimension ref="B2:J23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="1">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>148</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="1">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="J5" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="J6" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>151</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="J7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>153</v>
+      </c>
+      <c r="J9" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" s="12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="12">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D23" s="12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:K52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,16 +1553,480 @@
         <v>3.0670606060606063</v>
       </c>
     </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.7959999999999998</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.7130000000000001</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.8969999999999998</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.786</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0.27800000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2.9950000000000001</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.8690000000000002</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2.8690000000000002</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0.47899999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="B24" s="1">
+        <v>3.0939999999999999</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2.9670000000000001</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2.9660000000000002</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0.50900000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="B25" s="1">
+        <v>3.194</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3.1179999999999999</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3.036</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3.2949999999999999</v>
+      </c>
+      <c r="C26" s="1">
+        <v>3.222</v>
+      </c>
+      <c r="D26" s="1">
+        <v>3.036</v>
+      </c>
+      <c r="E26" s="1">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3.3959999999999999</v>
+      </c>
+      <c r="C27" s="1">
+        <v>3.323</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3.036</v>
+      </c>
+      <c r="E27" s="1">
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3.597</v>
+      </c>
+      <c r="C28" s="1">
+        <v>3.5249999999999999</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3.0350000000000001</v>
+      </c>
+      <c r="E28" s="1">
+        <v>9.7000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3.7919999999999998</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3.7189999999999999</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3.0350000000000001</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>4</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3.992</v>
+      </c>
+      <c r="C30" s="1">
+        <v>3.9319999999999999</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3.0350000000000001</v>
+      </c>
+      <c r="E30" s="1">
+        <v>9.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4.4960000000000004</v>
+      </c>
+      <c r="C31" s="1">
+        <v>4.431</v>
+      </c>
+      <c r="D31" s="1">
+        <v>3.036</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>5</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4.992</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4.9279999999999999</v>
+      </c>
+      <c r="D32" s="1">
+        <v>3.0369999999999999</v>
+      </c>
+      <c r="E32" s="1">
+        <v>9.1999999999999998E-2</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="H32" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>6</v>
+      </c>
+      <c r="B33" s="1">
+        <v>5.9859999999999998</v>
+      </c>
+      <c r="C33" s="1">
+        <v>5.9240000000000004</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3.0379999999999998</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>7</v>
+      </c>
+      <c r="B34" s="1">
+        <v>6.9870000000000001</v>
+      </c>
+      <c r="C34" s="1">
+        <v>6.9240000000000004</v>
+      </c>
+      <c r="D34" s="1">
+        <v>3.0379999999999998</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>8</v>
+      </c>
+      <c r="B35" s="1">
+        <v>7.9870000000000001</v>
+      </c>
+      <c r="C35" s="1">
+        <v>7.9279999999999999</v>
+      </c>
+      <c r="D35" s="1">
+        <v>3.0379999999999998</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>9</v>
+      </c>
+      <c r="B36" s="1">
+        <v>8.9969999999999999</v>
+      </c>
+      <c r="C36" s="1">
+        <v>8.9410000000000007</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3.0379999999999998</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2.8769999999999998</v>
+      </c>
+      <c r="H36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2.1070000000000002</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="1">
+        <v>6.48</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40">
+        <f>B40*1000/B39</f>
+        <v>3075.4627432368293</v>
+      </c>
+      <c r="G40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="10">
+        <f>F40/3</f>
+        <v>1025.1542477456098</v>
+      </c>
+      <c r="G41" t="s">
+        <v>124</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="I42" t="s">
+        <v>126</v>
+      </c>
+      <c r="K42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="I43" t="s">
+        <v>127</v>
+      </c>
+      <c r="K43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>

--- a/Doc/docs.xlsx
+++ b/Doc/docs.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="159">
   <si>
     <t>microcontroller:</t>
   </si>
@@ -489,6 +489,12 @@
   </si>
   <si>
     <t>dbg.dongle</t>
+  </si>
+  <si>
+    <t>gpio</t>
+  </si>
+  <si>
+    <t>interface creation for i2c and Barometer</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1221,7 @@
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,11 +1313,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="H9" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I8" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
         <v>153</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J10" s="1">
         <v>6</v>
       </c>
     </row>
@@ -1332,6 +1346,12 @@
       </c>
       <c r="D12" s="1">
         <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>158</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">

--- a/Doc/docs.xlsx
+++ b/Doc/docs.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="162">
   <si>
     <t>microcontroller:</t>
   </si>
@@ -495,6 +495,15 @@
   </si>
   <si>
     <t>interface creation for i2c and Barometer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i2c </t>
+  </si>
+  <si>
+    <t>driver first exp.</t>
+  </si>
+  <si>
+    <t>write operation</t>
   </si>
 </sst>
 </file>
@@ -1221,7 +1230,7 @@
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,7 +1240,7 @@
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="7" max="7" width="17.140625" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" style="7" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1361,12 +1370,27 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
+      <c r="H13" t="s">
+        <v>159</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>155</v>
       </c>
       <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="J14" s="1">
         <v>2</v>
       </c>
     </row>

--- a/Doc/docs.xlsx
+++ b/Doc/docs.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="164">
   <si>
     <t>microcontroller:</t>
   </si>
@@ -504,6 +504,12 @@
   </si>
   <si>
     <t>write operation</t>
+  </si>
+  <si>
+    <t>finalizing driver and losing everything</t>
+  </si>
+  <si>
+    <t>remaking the lost stuff from head + testing</t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1236,7 @@
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,7 +1246,7 @@
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="7" max="7" width="17.140625" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="40.28515625" style="7" customWidth="1"/>
     <col min="10" max="10" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1400,6 +1406,20 @@
       </c>
       <c r="D15" s="1">
         <v>4</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
@@ -2070,8 +2090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Doc/docs.xlsx
+++ b/Doc/docs.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="166">
   <si>
     <t>microcontroller:</t>
   </si>
@@ -510,6 +510,12 @@
   </si>
   <si>
     <t>remaking the lost stuff from head + testing</t>
+  </si>
+  <si>
+    <t>spi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">implementing the driver </t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1242,7 @@
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,12 +1428,21 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>164</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="J17" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>143</v>
       </c>
@@ -1435,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>147</v>
       </c>
@@ -1443,7 +1458,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C20" s="11" t="s">
         <v>144</v>
       </c>
@@ -1451,7 +1466,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C21" s="11" t="s">
         <v>145</v>
       </c>
@@ -1459,7 +1474,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C22" s="11" t="s">
         <v>154</v>
       </c>
@@ -1467,7 +1482,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C23" s="11" t="s">
         <v>146</v>
       </c>

--- a/Doc/docs.xlsx
+++ b/Doc/docs.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="167">
   <si>
     <t>microcontroller:</t>
   </si>
@@ -516,6 +516,9 @@
   </si>
   <si>
     <t xml:space="preserve">implementing the driver </t>
+  </si>
+  <si>
+    <t xml:space="preserve">further impl. + tests, fixes </t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1245,7 @@
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,6 +1451,12 @@
       </c>
       <c r="D18" s="1">
         <v>1</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="J18" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">

--- a/Doc/docs.xlsx
+++ b/Doc/docs.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="171">
   <si>
     <t>microcontroller:</t>
   </si>
@@ -519,6 +519,18 @@
   </si>
   <si>
     <t xml:space="preserve">further impl. + tests, fixes </t>
+  </si>
+  <si>
+    <t>Baro Sensor</t>
+  </si>
+  <si>
+    <t>implementation</t>
+  </si>
+  <si>
+    <t>implementation finalize - testing - error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debugging </t>
   </si>
 </sst>
 </file>
@@ -1245,7 +1257,7 @@
   <dimension ref="B2:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1466,6 +1478,15 @@
       <c r="D19" s="1">
         <v>0.5</v>
       </c>
+      <c r="H19" t="s">
+        <v>167</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C20" s="11" t="s">
@@ -1474,6 +1495,12 @@
       <c r="D20" s="12">
         <v>0.5</v>
       </c>
+      <c r="I20" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="J20" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C21" s="11" t="s">
@@ -1481,6 +1508,12 @@
       </c>
       <c r="D21" s="12">
         <v>0.75</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">

--- a/Doc/docs.xlsx
+++ b/Doc/docs.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="175">
   <si>
     <t>microcontroller:</t>
   </si>
@@ -531,6 +531,18 @@
   </si>
   <si>
     <t xml:space="preserve">debugging </t>
+  </si>
+  <si>
+    <t>Accelerometer</t>
+  </si>
+  <si>
+    <t>documenting + impl. initialization+read</t>
+  </si>
+  <si>
+    <t>selftest + various state machine stuff</t>
+  </si>
+  <si>
+    <t>implementing API routines</t>
   </si>
 </sst>
 </file>
@@ -1254,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J23"/>
+  <dimension ref="B2:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1523,6 +1535,15 @@
       <c r="D22" s="12">
         <v>0.25</v>
       </c>
+      <c r="H22" t="s">
+        <v>171</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" s="1">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C23" s="11" t="s">
@@ -1530,6 +1551,20 @@
       </c>
       <c r="D23" s="12">
         <v>1</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="J23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I24" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="J24" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/docs.xlsx
+++ b/Doc/docs.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="176">
   <si>
     <t>microcontroller:</t>
   </si>
@@ -543,6 +543,9 @@
   </si>
   <si>
     <t>implementing API routines</t>
+  </si>
+  <si>
+    <t>debugging + test app</t>
   </si>
 </sst>
 </file>
@@ -1266,10 +1269,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J24"/>
+  <dimension ref="B2:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1565,6 +1568,14 @@
       </c>
       <c r="J24" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="I25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="J25" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
